--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/Gerla_Galloway_1998.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/Gerla_Galloway_1998.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Gerla_Galloway_1998/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0F327-9693-B644-9C04-DF8286CE692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A1FE1-C77A-9640-9834-EA4577779A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-640" yWindow="1200" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Jones Creek</t>
   </si>
   <si>
-    <t>mg N/L</t>
-  </si>
-  <si>
     <t>Figure 8</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Dfc</t>
+  </si>
+  <si>
+    <t>mg_N_L</t>
   </si>
 </sst>
 </file>
@@ -504,9 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7C6567-21D2-984F-88AC-EA2A27125A57}">
   <dimension ref="A1:V573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G123"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +608,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -626,13 +626,13 @@
         <v>3.4706954520000002</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -673,10 +673,10 @@
         <v>3.117393082</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -717,10 +717,10 @@
         <v>1.4794523310000001</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -761,10 +761,10 @@
         <v>8.4065476829999994</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -805,10 +805,10 @@
         <v>0.38758267499999999</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -849,10 +849,10 @@
         <v>21.302339589999999</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -893,10 +893,10 @@
         <v>0.38180363299999998</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -937,10 +937,10 @@
         <v>29.664362570000002</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -981,10 +981,10 @@
         <v>35.19723467</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -1025,10 +1025,10 @@
         <v>5.5510153129999997</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -1069,10 +1069,10 @@
         <v>1.409645359</v>
       </c>
       <c r="R12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1113,10 +1113,10 @@
         <v>0.93296071300000005</v>
       </c>
       <c r="R13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -1157,10 +1157,10 @@
         <v>1.3412967119999999</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -1201,10 +1201,10 @@
         <v>3.8559785739999999</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -1245,10 +1245,10 @@
         <v>0.19476395099999999</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -1289,10 +1289,10 @@
         <v>0.38172519300000002</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1315,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1333,10 +1333,10 @@
         <v>1.2398759109999999</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1377,10 +1377,10 @@
         <v>0.29749595299999998</v>
       </c>
       <c r="R19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -1421,10 +1421,10 @@
         <v>0.36629613900000002</v>
       </c>
       <c r="R20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -1465,10 +1465,10 @@
         <v>42.226502480000001</v>
       </c>
       <c r="R21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -1509,10 +1509,10 @@
         <v>1.398242054</v>
       </c>
       <c r="R22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -1553,10 +1553,10 @@
         <v>4.0308633189999998</v>
       </c>
       <c r="R23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -1597,10 +1597,10 @@
         <v>1.0692531679999999</v>
       </c>
       <c r="R24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -1623,7 +1623,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -1641,10 +1641,10 @@
         <v>0.44848178700000002</v>
       </c>
       <c r="R25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1667,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -1685,10 +1685,10 @@
         <v>0.73568648800000003</v>
       </c>
       <c r="R26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -1711,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -1729,10 +1729,10 @@
         <v>3.842425617</v>
       </c>
       <c r="R27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -1755,7 +1755,7 @@
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -1773,10 +1773,10 @@
         <v>0.65651117299999995</v>
       </c>
       <c r="R28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -1817,10 +1817,10 @@
         <v>0.48005712</v>
       </c>
       <c r="R29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1861,10 +1861,10 @@
         <v>0.28295892700000003</v>
       </c>
       <c r="R30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1905,10 +1905,10 @@
         <v>4.0836323930000002</v>
       </c>
       <c r="R31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -1931,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -1949,10 +1949,10 @@
         <v>1.4556106019999999</v>
       </c>
       <c r="R32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -1975,7 +1975,7 @@
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -1993,10 +1993,10 @@
         <v>0.92132429599999999</v>
       </c>
       <c r="R33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -2037,10 +2037,10 @@
         <v>8.5466647239999993</v>
       </c>
       <c r="R34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -2063,7 +2063,7 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -2081,10 +2081,10 @@
         <v>0.37858459700000002</v>
       </c>
       <c r="R35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -2125,10 +2125,10 @@
         <v>0.720976214</v>
       </c>
       <c r="R36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -2169,10 +2169,10 @@
         <v>0.78604175099999996</v>
       </c>
       <c r="R37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -2213,10 +2213,10 @@
         <v>0.22235698800000001</v>
       </c>
       <c r="R38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -2257,10 +2257,10 @@
         <v>0.94271219900000003</v>
       </c>
       <c r="R39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
         <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -2301,10 +2301,10 @@
         <v>1.8927665520000001</v>
       </c>
       <c r="R40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -2345,10 +2345,10 @@
         <v>0.374797408</v>
       </c>
       <c r="R41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -2371,7 +2371,7 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -2389,10 +2389,10 @@
         <v>6.6190606919999997</v>
       </c>
       <c r="R42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -2415,7 +2415,7 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -2433,10 +2433,10 @@
         <v>1.1988288519999999</v>
       </c>
       <c r="R43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -2477,10 +2477,10 @@
         <v>1.677887294</v>
       </c>
       <c r="R44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -2503,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
@@ -2521,10 +2521,10 @@
         <v>0.373771931</v>
       </c>
       <c r="R45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -2565,10 +2565,10 @@
         <v>0.36110815099999999</v>
       </c>
       <c r="R46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -2591,7 +2591,7 @@
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -2609,10 +2609,10 @@
         <v>0.35515067299999997</v>
       </c>
       <c r="R47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -2653,10 +2653,10 @@
         <v>0.49607970699999998</v>
       </c>
       <c r="R48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -2679,7 +2679,7 @@
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -2697,10 +2697,10 @@
         <v>0.71377727400000002</v>
       </c>
       <c r="R49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -2723,7 +2723,7 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -2741,10 +2741,10 @@
         <v>1.3858144729999999</v>
       </c>
       <c r="R50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -2767,7 +2767,7 @@
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -2785,10 +2785,10 @@
         <v>3.4840843750000001</v>
       </c>
       <c r="R51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -2811,7 +2811,7 @@
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -2829,10 +2829,10 @@
         <v>1.148175167</v>
       </c>
       <c r="R52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -2873,10 +2873,10 @@
         <v>5.8153717000000001E-2</v>
       </c>
       <c r="R53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -2899,7 +2899,7 @@
         <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -2917,10 +2917,10 @@
         <v>2.208706947</v>
       </c>
       <c r="R54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -2943,7 +2943,7 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -2961,10 +2961,10 @@
         <v>1.708161007</v>
       </c>
       <c r="R55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
         <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -3005,10 +3005,10 @@
         <v>0.71098421700000003</v>
       </c>
       <c r="R56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -3031,7 +3031,7 @@
         <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -3049,10 +3049,10 @@
         <v>0.41128083700000001</v>
       </c>
       <c r="R57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -3075,7 +3075,7 @@
         <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -3093,10 +3093,10 @@
         <v>0.40254038599999997</v>
       </c>
       <c r="R58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -3137,10 +3137,10 @@
         <v>0.43974206999999998</v>
       </c>
       <c r="R59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -3181,10 +3181,10 @@
         <v>0.29302128300000002</v>
       </c>
       <c r="R60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
         <v>26</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -3225,10 +3225,10 @@
         <v>1.1930829789999999</v>
       </c>
       <c r="R61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -3251,7 +3251,7 @@
         <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -3269,10 +3269,10 @@
         <v>1.0856387869999999</v>
       </c>
       <c r="R62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63" t="s">
         <v>30</v>
@@ -3313,10 +3313,10 @@
         <v>2.1894391180000001</v>
       </c>
       <c r="R63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -3339,7 +3339,7 @@
         <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64" t="s">
         <v>30</v>
@@ -3357,10 +3357,10 @@
         <v>2.0760260019999999</v>
       </c>
       <c r="R64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -3383,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65" t="s">
         <v>30</v>
@@ -3401,10 +3401,10 @@
         <v>2.8000232450000002</v>
       </c>
       <c r="R65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -3427,7 +3427,7 @@
         <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66" t="s">
         <v>30</v>
@@ -3445,10 +3445,10 @@
         <v>1.3899981219999999</v>
       </c>
       <c r="R66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67" t="s">
         <v>30</v>
@@ -3489,10 +3489,10 @@
         <v>1.332723079</v>
       </c>
       <c r="R67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -3515,7 +3515,7 @@
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
         <v>30</v>
@@ -3533,10 +3533,10 @@
         <v>0.65825491199999997</v>
       </c>
       <c r="R68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -3559,7 +3559,7 @@
         <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69" t="s">
         <v>30</v>
@@ -3577,10 +3577,10 @@
         <v>2.8199185679999998</v>
       </c>
       <c r="R69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70" t="s">
         <v>30</v>
@@ -3621,10 +3621,10 @@
         <v>0.72340658800000002</v>
       </c>
       <c r="R70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71" t="s">
         <v>30</v>
@@ -3665,10 +3665,10 @@
         <v>0.68394110299999999</v>
       </c>
       <c r="R71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72" t="s">
         <v>30</v>
@@ -3709,10 +3709,10 @@
         <v>0.59907092299999998</v>
       </c>
       <c r="R72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s">
         <v>30</v>
@@ -3753,10 +3753,10 @@
         <v>0.63721526799999995</v>
       </c>
       <c r="R73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" t="s">
         <v>30</v>
@@ -3797,10 +3797,10 @@
         <v>0.48953301999999999</v>
       </c>
       <c r="R74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" t="s">
         <v>30</v>
@@ -3841,10 +3841,10 @@
         <v>1.228986087</v>
       </c>
       <c r="R75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -3867,7 +3867,7 @@
         <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" t="s">
         <v>30</v>
@@ -3885,10 +3885,10 @@
         <v>1.440961012</v>
       </c>
       <c r="R76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77" t="s">
         <v>30</v>
@@ -3929,10 +3929,10 @@
         <v>19.70177151</v>
       </c>
       <c r="R77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" t="s">
         <v>30</v>
@@ -3973,10 +3973,10 @@
         <v>14.09273825</v>
       </c>
       <c r="R78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79" t="s">
         <v>30</v>
@@ -4017,10 +4017,10 @@
         <v>13.98363196</v>
       </c>
       <c r="R79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -4043,7 +4043,7 @@
         <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80" t="s">
         <v>30</v>
@@ -4061,10 +4061,10 @@
         <v>9.8181621060000008</v>
       </c>
       <c r="R80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81" t="s">
         <v>30</v>
@@ -4105,10 +4105,10 @@
         <v>9.8455170400000007</v>
       </c>
       <c r="R81" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -4131,7 +4131,7 @@
         <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82" t="s">
         <v>30</v>
@@ -4149,10 +4149,10 @@
         <v>7.0002210299999996</v>
       </c>
       <c r="R82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s">
         <v>30</v>
@@ -4193,10 +4193,10 @@
         <v>14.137374660000001</v>
       </c>
       <c r="R83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -4219,7 +4219,7 @@
         <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84" t="s">
         <v>30</v>
@@ -4237,10 +4237,10 @@
         <v>2.7640241200000002</v>
       </c>
       <c r="R84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
         <v>30</v>
@@ -4281,10 +4281,10 @@
         <v>1.3078096320000001</v>
       </c>
       <c r="R85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -4307,7 +4307,7 @@
         <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86" t="s">
         <v>30</v>
@@ -4325,10 +4325,10 @@
         <v>1.4514396629999999</v>
       </c>
       <c r="R86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87" t="s">
         <v>30</v>
@@ -4369,10 +4369,10 @@
         <v>2.2229330730000001</v>
       </c>
       <c r="R87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -4395,7 +4395,7 @@
         <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88" t="s">
         <v>30</v>
@@ -4413,10 +4413,10 @@
         <v>0.73568648800000003</v>
       </c>
       <c r="R88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -4439,7 +4439,7 @@
         <v>23</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89" t="s">
         <v>30</v>
@@ -4457,10 +4457,10 @@
         <v>1.8827842480000001</v>
       </c>
       <c r="R89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -4483,7 +4483,7 @@
         <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90" t="s">
         <v>30</v>
@@ -4501,10 +4501,10 @@
         <v>7.5729614420000004</v>
       </c>
       <c r="R90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91" t="s">
         <v>30</v>
@@ -4545,10 +4545,10 @@
         <v>9.288896716</v>
       </c>
       <c r="R91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -4571,7 +4571,7 @@
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92" t="s">
         <v>30</v>
@@ -4589,10 +4589,10 @@
         <v>12.65084635</v>
       </c>
       <c r="R92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93" t="s">
         <v>30</v>
@@ -4633,10 +4633,10 @@
         <v>19.69845402</v>
       </c>
       <c r="R93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -4659,7 +4659,7 @@
         <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" t="s">
         <v>30</v>
@@ -4677,10 +4677,10 @@
         <v>15.5554977</v>
       </c>
       <c r="R94" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H95" t="s">
         <v>30</v>
@@ -4721,10 +4721,10 @@
         <v>9.5587784570000007</v>
       </c>
       <c r="R95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -4747,7 +4747,7 @@
         <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96" t="s">
         <v>30</v>
@@ -4765,10 +4765,10 @@
         <v>0.84050077999999995</v>
       </c>
       <c r="R96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97" t="s">
         <v>30</v>
@@ -4809,10 +4809,10 @@
         <v>5.2878887219999999</v>
       </c>
       <c r="R97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -4835,7 +4835,7 @@
         <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98" t="s">
         <v>30</v>
@@ -4853,10 +4853,10 @@
         <v>0.467357411</v>
       </c>
       <c r="R98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99" t="s">
         <v>30</v>
@@ -4897,10 +4897,10 @@
         <v>1.0229263660000001</v>
       </c>
       <c r="R99" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
@@ -4923,7 +4923,7 @@
         <v>23</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100" t="s">
         <v>30</v>
@@ -4941,10 +4941,10 @@
         <v>2.9962158560000001</v>
       </c>
       <c r="R100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>23</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101" t="s">
         <v>30</v>
@@ -4985,10 +4985,10 @@
         <v>10.378629950000001</v>
       </c>
       <c r="R101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -5011,7 +5011,7 @@
         <v>23</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102" t="s">
         <v>30</v>
@@ -5029,10 +5029,10 @@
         <v>10.3509692</v>
       </c>
       <c r="R102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>23</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103" t="s">
         <v>30</v>
@@ -5073,10 +5073,10 @@
         <v>13.26430487</v>
       </c>
       <c r="R103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
@@ -5099,7 +5099,7 @@
         <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H104" t="s">
         <v>30</v>
@@ -5117,10 +5117,10 @@
         <v>16.990631050000001</v>
       </c>
       <c r="R104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>23</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105" t="s">
         <v>30</v>
@@ -5161,10 +5161,10 @@
         <v>14.111787509999999</v>
       </c>
       <c r="R105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -5187,7 +5187,7 @@
         <v>23</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106" t="s">
         <v>30</v>
@@ -5205,10 +5205,10 @@
         <v>10.959629189999999</v>
       </c>
       <c r="R106" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107" t="s">
         <v>30</v>
@@ -5249,10 +5249,10 @@
         <v>7.7370104489999996</v>
       </c>
       <c r="R107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
         <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108" t="s">
         <v>30</v>
@@ -5293,10 +5293,10 @@
         <v>7.0299994010000004</v>
       </c>
       <c r="R108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>23</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109" t="s">
         <v>30</v>
@@ -5337,10 +5337,10 @@
         <v>6.6298223600000004</v>
       </c>
       <c r="R109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -5363,7 +5363,7 @@
         <v>23</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110" t="s">
         <v>30</v>
@@ -5381,10 +5381,10 @@
         <v>4.2162202320000004</v>
       </c>
       <c r="R110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H111" t="s">
         <v>30</v>
@@ -5425,10 +5425,10 @@
         <v>4.3041317020000003</v>
       </c>
       <c r="R111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
@@ -5451,7 +5451,7 @@
         <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112" t="s">
         <v>30</v>
@@ -5469,10 +5469,10 @@
         <v>2.489017644</v>
       </c>
       <c r="R112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113" t="s">
         <v>30</v>
@@ -5513,10 +5513,10 @@
         <v>5.8605132539999998</v>
       </c>
       <c r="R113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
@@ -5539,7 +5539,7 @@
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114" t="s">
         <v>30</v>
@@ -5557,10 +5557,10 @@
         <v>4.3164179620000001</v>
       </c>
       <c r="R114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>23</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H115" t="s">
         <v>30</v>
@@ -5601,10 +5601,10 @@
         <v>4.6446794919999999</v>
       </c>
       <c r="R115" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
@@ -5627,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H116" t="s">
         <v>30</v>
@@ -5645,10 +5645,10 @@
         <v>12.07822986</v>
       </c>
       <c r="R116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>23</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117" t="s">
         <v>30</v>
@@ -5689,10 +5689,10 @@
         <v>10.46497724</v>
       </c>
       <c r="R117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
@@ -5715,7 +5715,7 @@
         <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118" t="s">
         <v>30</v>
@@ -5733,10 +5733,10 @@
         <v>8.1380249490000001</v>
       </c>
       <c r="R118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119" t="s">
         <v>30</v>
@@ -5777,10 +5777,10 @@
         <v>7.725275248</v>
       </c>
       <c r="R119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
@@ -5803,7 +5803,7 @@
         <v>23</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120" t="s">
         <v>30</v>
@@ -5821,10 +5821,10 @@
         <v>6.4703840599999998</v>
       </c>
       <c r="R120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>23</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121" t="s">
         <v>30</v>
@@ -5865,10 +5865,10 @@
         <v>2.201971178</v>
       </c>
       <c r="R121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
@@ -5891,7 +5891,7 @@
         <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122" t="s">
         <v>30</v>
@@ -5909,10 +5909,10 @@
         <v>2.389475719</v>
       </c>
       <c r="R122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>23</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123" t="s">
         <v>30</v>
@@ -5953,10 +5953,10 @@
         <v>3.2318846649999999</v>
       </c>
       <c r="R123" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
